--- a/Макеты/ADO_En/VA_LoadingADO_En.xlsx
+++ b/Макеты/ADO_En/VA_LoadingADO_En.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB13F9D-E964-452F-A8E6-18D08AB218BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A75E1-6703-40F8-9815-98A7FF88FD41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>2900001970198</t>
   </si>
@@ -46,15 +46,6 @@
     <t>Period</t>
   </si>
   <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
-    <t>2/1/2021</t>
-  </si>
-  <si>
-    <t>3/1/2021</t>
-  </si>
-  <si>
     <t>KPGUProf6</t>
   </si>
   <si>
@@ -98,6 +89,9 @@
   </si>
   <si>
     <t>2C:Corporation</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,13 +435,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -461,16 +455,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -482,16 +476,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -503,16 +497,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -524,16 +518,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -545,16 +539,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -566,16 +560,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
+      <c r="D7" s="3">
+        <v>44228</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -587,16 +581,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
+      <c r="D8" s="3">
+        <v>44228</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -608,16 +602,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
+      <c r="D9" s="3">
+        <v>44228</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -629,16 +623,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
+      <c r="D10" s="3">
+        <v>44228</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -650,16 +644,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
+      <c r="D11" s="3">
+        <v>44228</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -671,16 +665,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>44256</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -692,16 +686,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
+      <c r="D13" s="3">
+        <v>44256</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -713,16 +707,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>44256</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -734,16 +728,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>44256</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -755,16 +749,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
+      <c r="D16" s="3">
+        <v>44256</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -776,16 +770,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -797,16 +791,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>44228</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -818,16 +812,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
+      <c r="D19" s="3">
+        <v>44256</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -839,16 +833,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -860,16 +854,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -881,16 +875,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44228</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -902,16 +896,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44228</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -923,16 +917,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>44256</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -944,16 +938,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>44256</v>
       </c>
       <c r="E25">
         <v>20</v>

--- a/Макеты/ADO_En/VA_LoadingADO_En.xlsx
+++ b/Макеты/ADO_En/VA_LoadingADO_En.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A75E1-6703-40F8-9815-98A7FF88FD41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB13F9D-E964-452F-A8E6-18D08AB218BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
   <si>
     <t>2900001970198</t>
   </si>
@@ -46,6 +46,15 @@
     <t>Period</t>
   </si>
   <si>
+    <t>1/1/2021</t>
+  </si>
+  <si>
+    <t>2/1/2021</t>
+  </si>
+  <si>
+    <t>3/1/2021</t>
+  </si>
+  <si>
     <t>KPGUProf6</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>2C:Corporation</t>
-  </si>
-  <si>
-    <t>01.01.2021</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,13 +441,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -455,16 +461,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -476,16 +482,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -497,16 +503,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -518,16 +524,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -539,16 +545,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -560,16 +566,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
-        <v>44228</v>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -581,16 +587,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>44228</v>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -602,16 +608,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
-        <v>44228</v>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -623,16 +629,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
-        <v>44228</v>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -644,16 +650,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3">
-        <v>44228</v>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -665,16 +671,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
-        <v>44256</v>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -686,16 +692,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
-        <v>44256</v>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -707,16 +713,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
-        <v>44256</v>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -728,16 +734,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
-        <v>44256</v>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -749,16 +755,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3">
-        <v>44256</v>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -770,16 +776,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -791,16 +797,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
-        <v>44228</v>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -812,16 +818,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>44256</v>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -833,16 +839,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -854,16 +860,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -875,16 +881,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>44228</v>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -896,16 +902,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D23" s="3">
-        <v>44228</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -917,16 +923,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44256</v>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -938,16 +944,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3">
-        <v>44256</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E25">
         <v>20</v>

--- a/Макеты/ADO_En/VA_LoadingADO_En.xlsx
+++ b/Макеты/ADO_En/VA_LoadingADO_En.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB13F9D-E964-452F-A8E6-18D08AB218BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>2900001970198</t>
   </si>
@@ -46,30 +45,12 @@
     <t>Period</t>
   </si>
   <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
-    <t>2/1/2021</t>
-  </si>
-  <si>
-    <t>3/1/2021</t>
-  </si>
-  <si>
     <t>KPGUProf6</t>
   </si>
   <si>
     <t>KPGUProf12</t>
   </si>
   <si>
-    <t>Software upgrade</t>
-  </si>
-  <si>
-    <t>Software implementation</t>
-  </si>
-  <si>
-    <t>Software sale</t>
-  </si>
-  <si>
     <t>1C:ERP. Corporate performance management</t>
   </si>
   <si>
@@ -98,12 +79,24 @@
   </si>
   <si>
     <t>2C:Corporation</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>3Software sale</t>
+  </si>
+  <si>
+    <t>1Software upgrade</t>
+  </si>
+  <si>
+    <t>2Software implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,13 +434,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -461,16 +454,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -482,16 +475,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -503,16 +496,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -524,16 +517,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -545,16 +538,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -566,16 +559,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
+      <c r="D7" s="3">
+        <v>44228</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -587,16 +580,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
+      <c r="D8" s="3">
+        <v>44228</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -608,16 +601,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
+      <c r="D9" s="3">
+        <v>44228</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -629,16 +622,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
+      <c r="D10" s="3">
+        <v>44228</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -650,16 +643,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
+      <c r="D11" s="3">
+        <v>44228</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -671,16 +664,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>44256</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -692,16 +685,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
+      <c r="D13" s="3">
+        <v>44256</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -713,16 +706,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>44256</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -734,16 +727,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>44256</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -755,16 +748,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
+      <c r="D16" s="3">
+        <v>44256</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -776,16 +769,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -797,16 +790,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>44228</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -818,16 +811,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
+      <c r="D19" s="3">
+        <v>44256</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -839,16 +832,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -860,16 +853,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -881,16 +874,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44228</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -902,16 +895,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44228</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -923,16 +916,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>44256</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -944,16 +937,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>44256</v>
       </c>
       <c r="E25">
         <v>20</v>
